--- a/data/trans_orig/P6711-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6711-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E48C8694-FE25-465C-B23B-DDFE11431623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B30E562-7859-4F37-A4F5-F24E40FDD52D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EB67B51C-E31D-41D8-A59D-620CB6CD67F9}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3E355D84-D6A7-4C75-B69C-03B2D1D602F8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -75,1519 +75,1519 @@
     <t>11,09%</t>
   </si>
   <si>
-    <t>4,19%</t>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si puede dejar su puesto de trabajo al menos una hora sin tener que pedir un permiso especial si le ha surgido algún asunto personal o familiar en 2015 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
   </si>
   <si>
     <t>24,99%</t>
   </si>
   <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
     <t>20,56%</t>
   </si>
   <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
   </si>
   <si>
     <t>19,89%</t>
   </si>
   <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
   </si>
   <si>
     <t>27,55%</t>
   </si>
   <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si puede dejar su puesto de trabajo al menos una hora sin tener que pedir un permiso especial si le ha surgido algún asunto personal o familiar en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
   </si>
 </sst>
 </file>
@@ -1999,7 +1999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3202386-74AC-407F-88CD-B8CA7BA3CDE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1430737-738C-49BE-AC6E-62445863D5BC}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2210,13 +2210,13 @@
         <v>26</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="7">
         <v>7</v>
@@ -2225,13 +2225,13 @@
         <v>5722</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -2240,13 +2240,13 @@
         <v>3117</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M6" s="7">
         <v>10</v>
@@ -2255,19 +2255,19 @@
         <v>8839</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
         <v>7</v>
@@ -2276,13 +2276,13 @@
         <v>7235</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -2291,13 +2291,13 @@
         <v>1063</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -2306,19 +2306,19 @@
         <v>8298</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7">
         <v>33</v>
@@ -2327,13 +2327,13 @@
         <v>31372</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>15</v>
@@ -2342,13 +2342,13 @@
         <v>17656</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M8" s="7">
         <v>48</v>
@@ -2357,13 +2357,13 @@
         <v>49029</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2378,13 +2378,13 @@
         <v>51733</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H9" s="7">
         <v>22</v>
@@ -2393,13 +2393,13 @@
         <v>25186</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>76</v>
@@ -2408,18 +2408,18 @@
         <v>76919</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2431,13 +2431,13 @@
         <v>31262</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H10" s="7">
         <v>18</v>
@@ -2446,13 +2446,13 @@
         <v>20677</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M10" s="7">
         <v>47</v>
@@ -2461,10 +2461,10 @@
         <v>51939</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>66</v>
@@ -2524,7 +2524,7 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" s="7">
         <v>25</v>
@@ -2575,7 +2575,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="7">
         <v>34</v>
@@ -2626,7 +2626,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" s="7">
         <v>111</v>
@@ -2686,13 +2686,13 @@
         <v>217204</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H15" s="7">
         <v>128</v>
@@ -2701,13 +2701,13 @@
         <v>136089</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M15" s="7">
         <v>334</v>
@@ -2716,13 +2716,13 @@
         <v>353293</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2760,7 +2760,7 @@
         <v>108</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="M16" s="7">
         <v>79</v>
@@ -2769,13 +2769,13 @@
         <v>86752</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2790,13 +2790,13 @@
         <v>20877</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -2805,13 +2805,13 @@
         <v>17471</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>35</v>
@@ -2820,19 +2820,19 @@
         <v>38348</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" s="7">
         <v>73</v>
@@ -2841,13 +2841,13 @@
         <v>80436</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H18" s="7">
         <v>38</v>
@@ -2856,13 +2856,13 @@
         <v>40467</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M18" s="7">
         <v>111</v>
@@ -2871,19 +2871,19 @@
         <v>120903</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" s="7">
         <v>60</v>
@@ -2892,13 +2892,13 @@
         <v>62918</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H19" s="7">
         <v>47</v>
@@ -2907,13 +2907,13 @@
         <v>50573</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M19" s="7">
         <v>107</v>
@@ -2922,19 +2922,19 @@
         <v>113491</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" s="7">
         <v>178</v>
@@ -2943,13 +2943,13 @@
         <v>193966</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H20" s="7">
         <v>112</v>
@@ -2958,13 +2958,13 @@
         <v>126479</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M20" s="7">
         <v>290</v>
@@ -2973,13 +2973,13 @@
         <v>320445</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2994,13 +2994,13 @@
         <v>410691</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
         <v>244</v>
@@ -3009,13 +3009,13 @@
         <v>269248</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
         <v>622</v>
@@ -3024,18 +3024,18 @@
         <v>679939</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3047,13 +3047,13 @@
         <v>25876</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>76</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>21</v>
@@ -3062,13 +3062,13 @@
         <v>22761</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>45</v>
@@ -3077,13 +3077,13 @@
         <v>48637</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3098,13 +3098,13 @@
         <v>23584</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="H23" s="7">
         <v>15</v>
@@ -3113,13 +3113,13 @@
         <v>16930</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>114</v>
+        <v>161</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M23" s="7">
         <v>36</v>
@@ -3128,19 +3128,19 @@
         <v>40513</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24" s="7">
         <v>60</v>
@@ -3149,13 +3149,13 @@
         <v>70687</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H24" s="7">
         <v>22</v>
@@ -3164,13 +3164,13 @@
         <v>25399</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M24" s="7">
         <v>82</v>
@@ -3179,19 +3179,19 @@
         <v>96086</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7">
         <v>49</v>
@@ -3200,13 +3200,13 @@
         <v>50894</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H25" s="7">
         <v>44</v>
@@ -3215,13 +3215,13 @@
         <v>46866</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="M25" s="7">
         <v>93</v>
@@ -3230,19 +3230,19 @@
         <v>97761</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C26" s="7">
         <v>136</v>
@@ -3251,13 +3251,13 @@
         <v>149501</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H26" s="7">
         <v>89</v>
@@ -3266,13 +3266,13 @@
         <v>101308</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="M26" s="7">
         <v>225</v>
@@ -3281,13 +3281,13 @@
         <v>250809</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3302,13 +3302,13 @@
         <v>320542</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H27" s="7">
         <v>191</v>
@@ -3317,13 +3317,13 @@
         <v>213264</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M27" s="7">
         <v>481</v>
@@ -3332,18 +3332,18 @@
         <v>533805</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3355,13 +3355,13 @@
         <v>43735</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="H28" s="7">
         <v>49</v>
@@ -3370,13 +3370,13 @@
         <v>52087</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M28" s="7">
         <v>91</v>
@@ -3385,13 +3385,13 @@
         <v>95822</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>125</v>
+        <v>202</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3406,13 +3406,13 @@
         <v>31066</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="H29" s="7">
         <v>27</v>
@@ -3421,13 +3421,13 @@
         <v>29893</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="M29" s="7">
         <v>59</v>
@@ -3436,19 +3436,19 @@
         <v>60959</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C30" s="7">
         <v>82</v>
@@ -3457,13 +3457,13 @@
         <v>82723</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H30" s="7">
         <v>47</v>
@@ -3472,13 +3472,13 @@
         <v>49127</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>211</v>
+        <v>27</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="M30" s="7">
         <v>129</v>
@@ -3487,19 +3487,19 @@
         <v>131850</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C31" s="7">
         <v>105</v>
@@ -3508,13 +3508,13 @@
         <v>105994</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="H31" s="7">
         <v>55</v>
@@ -3523,13 +3523,13 @@
         <v>57687</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="M31" s="7">
         <v>160</v>
@@ -3538,19 +3538,19 @@
         <v>163681</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32" s="7">
         <v>142</v>
@@ -3559,13 +3559,13 @@
         <v>154273</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="H32" s="7">
         <v>110</v>
@@ -3574,13 +3574,13 @@
         <v>112709</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="M32" s="7">
         <v>252</v>
@@ -3589,13 +3589,13 @@
         <v>266981</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3610,13 +3610,13 @@
         <v>417791</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H33" s="7">
         <v>288</v>
@@ -3625,13 +3625,13 @@
         <v>301503</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M33" s="7">
         <v>691</v>
@@ -3640,13 +3640,13 @@
         <v>719294</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3663,13 +3663,13 @@
         <v>159106</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>236</v>
+        <v>92</v>
       </c>
       <c r="H34" s="7">
         <v>120</v>
@@ -3678,13 +3678,13 @@
         <v>130995</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="M34" s="7">
         <v>268</v>
@@ -3693,13 +3693,13 @@
         <v>290101</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>242</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3714,13 +3714,13 @@
         <v>85180</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>14</v>
+        <v>247</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="H35" s="7">
         <v>65</v>
@@ -3729,13 +3729,13 @@
         <v>72949</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="M35" s="7">
         <v>146</v>
@@ -3744,19 +3744,19 @@
         <v>158129</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C36" s="7">
         <v>247</v>
@@ -3765,13 +3765,13 @@
         <v>265481</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="H36" s="7">
         <v>130</v>
@@ -3780,13 +3780,13 @@
         <v>139432</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>256</v>
+        <v>198</v>
       </c>
       <c r="M36" s="7">
         <v>377</v>
@@ -3795,19 +3795,19 @@
         <v>404913</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>79</v>
+        <v>261</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C37" s="7">
         <v>255</v>
@@ -3816,13 +3816,13 @@
         <v>262402</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H37" s="7">
         <v>169</v>
@@ -3831,13 +3831,13 @@
         <v>179957</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="M37" s="7">
         <v>424</v>
@@ -3846,19 +3846,19 @@
         <v>442358</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C38" s="7">
         <v>600</v>
@@ -3867,13 +3867,13 @@
         <v>645791</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="H38" s="7">
         <v>389</v>
@@ -3882,13 +3882,13 @@
         <v>421957</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="M38" s="7">
         <v>989</v>
@@ -3897,13 +3897,13 @@
         <v>1067748</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3918,13 +3918,13 @@
         <v>1417960</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H39" s="7">
         <v>873</v>
@@ -3933,13 +3933,13 @@
         <v>945290</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M39" s="7">
         <v>2204</v>
@@ -3948,18 +3948,18 @@
         <v>2363250</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -3980,7 +3980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B4ABE6-BE21-434F-8B5D-7FB488824A0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29FEDD8-F0B1-4F85-82A9-F6492A444A62}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3997,7 +3997,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4104,13 +4104,13 @@
         <v>4138</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -4119,13 +4119,13 @@
         <v>2662</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -4134,13 +4134,13 @@
         <v>6800</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4155,13 +4155,13 @@
         <v>7219</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -4170,13 +4170,13 @@
         <v>5432</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>77</v>
+        <v>295</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>291</v>
+        <v>34</v>
       </c>
       <c r="M5" s="7">
         <v>13</v>
@@ -4185,19 +4185,19 @@
         <v>12650</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>293</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="7">
         <v>9</v>
@@ -4206,13 +4206,13 @@
         <v>9234</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -4221,13 +4221,13 @@
         <v>5384</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="M6" s="7">
         <v>15</v>
@@ -4236,19 +4236,19 @@
         <v>14618</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
         <v>12</v>
@@ -4257,13 +4257,13 @@
         <v>12103</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -4272,13 +4272,13 @@
         <v>5193</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -4287,19 +4287,19 @@
         <v>17297</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>311</v>
+        <v>65</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>312</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7">
         <v>11</v>
@@ -4308,13 +4308,13 @@
         <v>11326</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>24</v>
+        <v>314</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H8" s="7">
         <v>11</v>
@@ -4323,13 +4323,13 @@
         <v>11220</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M8" s="7">
         <v>22</v>
@@ -4338,13 +4338,13 @@
         <v>22547</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>319</v>
+        <v>265</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4359,13 +4359,13 @@
         <v>44021</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H9" s="7">
         <v>32</v>
@@ -4374,13 +4374,13 @@
         <v>29891</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>75</v>
@@ -4389,18 +4389,18 @@
         <v>73912</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4412,13 +4412,13 @@
         <v>27821</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H10" s="7">
         <v>30</v>
@@ -4427,10 +4427,10 @@
         <v>30050</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>325</v>
+        <v>225</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>326</v>
@@ -4481,10 +4481,10 @@
         <v>333</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="M11" s="7">
         <v>37</v>
@@ -4493,19 +4493,19 @@
         <v>38380</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>337</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>325</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" s="7">
         <v>47</v>
@@ -4514,13 +4514,13 @@
         <v>47132</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="H12" s="7">
         <v>39</v>
@@ -4529,13 +4529,13 @@
         <v>37920</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="M12" s="7">
         <v>86</v>
@@ -4544,19 +4544,19 @@
         <v>85052</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="7">
         <v>50</v>
@@ -4565,10 +4565,10 @@
         <v>53417</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>348</v>
@@ -4580,10 +4580,10 @@
         <v>27159</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>138</v>
+        <v>349</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>349</v>
+        <v>241</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>350</v>
@@ -4598,16 +4598,16 @@
         <v>351</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>121</v>
+        <v>352</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" s="7">
         <v>43</v>
@@ -4616,13 +4616,13 @@
         <v>46886</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="H14" s="7">
         <v>29</v>
@@ -4631,13 +4631,13 @@
         <v>27980</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="M14" s="7">
         <v>72</v>
@@ -4646,13 +4646,13 @@
         <v>74867</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4667,13 +4667,13 @@
         <v>199269</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H15" s="7">
         <v>142</v>
@@ -4682,13 +4682,13 @@
         <v>137478</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M15" s="7">
         <v>330</v>
@@ -4697,13 +4697,13 @@
         <v>336747</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4720,13 +4720,13 @@
         <v>54424</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="H16" s="7">
         <v>37</v>
@@ -4735,13 +4735,13 @@
         <v>40231</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>364</v>
+        <v>212</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M16" s="7">
         <v>83</v>
@@ -4750,13 +4750,13 @@
         <v>94655</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>366</v>
+        <v>138</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>367</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>368</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4771,13 +4771,13 @@
         <v>48828</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="H17" s="7">
         <v>33</v>
@@ -4786,13 +4786,13 @@
         <v>31736</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="M17" s="7">
         <v>76</v>
@@ -4801,19 +4801,19 @@
         <v>80565</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>376</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>377</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" s="7">
         <v>96</v>
@@ -4822,13 +4822,13 @@
         <v>103467</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>376</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>379</v>
       </c>
       <c r="H18" s="7">
         <v>64</v>
@@ -4837,10 +4837,10 @@
         <v>62014</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>381</v>
@@ -4864,7 +4864,7 @@
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" s="7">
         <v>85</v>
@@ -4915,7 +4915,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" s="7">
         <v>102</v>
@@ -4939,7 +4939,7 @@
         <v>69451</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>397</v>
@@ -4957,10 +4957,10 @@
         <v>399</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4975,13 +4975,13 @@
         <v>414041</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
         <v>267</v>
@@ -4990,13 +4990,13 @@
         <v>273771</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
         <v>639</v>
@@ -5005,18 +5005,18 @@
         <v>687812</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5028,13 +5028,13 @@
         <v>55274</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>403</v>
       </c>
       <c r="H22" s="7">
         <v>46</v>
@@ -5043,13 +5043,13 @@
         <v>47074</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="M22" s="7">
         <v>94</v>
@@ -5058,13 +5058,13 @@
         <v>102348</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>335</v>
+        <v>406</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>328</v>
+        <v>407</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5079,13 +5079,13 @@
         <v>63110</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H23" s="7">
         <v>63</v>
@@ -5094,13 +5094,13 @@
         <v>64132</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>66</v>
+        <v>413</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M23" s="7">
         <v>121</v>
@@ -5109,19 +5109,19 @@
         <v>127242</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24" s="7">
         <v>79</v>
@@ -5130,13 +5130,13 @@
         <v>86728</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H24" s="7">
         <v>62</v>
@@ -5145,13 +5145,13 @@
         <v>62873</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="M24" s="7">
         <v>141</v>
@@ -5160,19 +5160,19 @@
         <v>149602</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>81</v>
+        <v>424</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7">
         <v>66</v>
@@ -5181,13 +5181,13 @@
         <v>75945</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>378</v>
+        <v>427</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>424</v>
+        <v>109</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="H25" s="7">
         <v>38</v>
@@ -5196,13 +5196,13 @@
         <v>38656</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>193</v>
+        <v>429</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="M25" s="7">
         <v>104</v>
@@ -5211,19 +5211,19 @@
         <v>114601</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>430</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C26" s="7">
         <v>76</v>
@@ -5232,13 +5232,13 @@
         <v>82763</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="H26" s="7">
         <v>56</v>
@@ -5247,13 +5247,13 @@
         <v>57823</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>319</v>
+        <v>437</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>435</v>
+        <v>24</v>
       </c>
       <c r="M26" s="7">
         <v>132</v>
@@ -5262,13 +5262,13 @@
         <v>140586</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5283,13 +5283,13 @@
         <v>363820</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H27" s="7">
         <v>265</v>
@@ -5298,13 +5298,13 @@
         <v>270558</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M27" s="7">
         <v>592</v>
@@ -5313,18 +5313,18 @@
         <v>634378</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5336,13 +5336,13 @@
         <v>67321</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>440</v>
+        <v>407</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>30</v>
+        <v>443</v>
       </c>
       <c r="H28" s="7">
         <v>71</v>
@@ -5351,13 +5351,13 @@
         <v>74384</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>442</v>
+        <v>413</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="M28" s="7">
         <v>137</v>
@@ -5366,13 +5366,13 @@
         <v>141705</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5387,13 +5387,13 @@
         <v>39225</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>447</v>
+        <v>364</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H29" s="7">
         <v>25</v>
@@ -5402,13 +5402,13 @@
         <v>27754</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M29" s="7">
         <v>63</v>
@@ -5417,19 +5417,19 @@
         <v>66978</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>89</v>
+        <v>456</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C30" s="7">
         <v>75</v>
@@ -5438,13 +5438,13 @@
         <v>76264</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="H30" s="7">
         <v>63</v>
@@ -5453,13 +5453,13 @@
         <v>68272</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>458</v>
+        <v>137</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M30" s="7">
         <v>138</v>
@@ -5468,19 +5468,19 @@
         <v>144537</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>45</v>
+        <v>461</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C31" s="7">
         <v>86</v>
@@ -5489,13 +5489,13 @@
         <v>84935</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="H31" s="7">
         <v>64</v>
@@ -5504,13 +5504,13 @@
         <v>66136</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="M31" s="7">
         <v>150</v>
@@ -5519,19 +5519,19 @@
         <v>151071</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32" s="7">
         <v>128</v>
@@ -5540,13 +5540,13 @@
         <v>133427</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="H32" s="7">
         <v>84</v>
@@ -5555,13 +5555,13 @@
         <v>88927</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="M32" s="7">
         <v>212</v>
@@ -5570,13 +5570,13 @@
         <v>222354</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>478</v>
+        <v>393</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>479</v>
+        <v>348</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5591,13 +5591,13 @@
         <v>401171</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H33" s="7">
         <v>307</v>
@@ -5606,13 +5606,13 @@
         <v>325474</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M33" s="7">
         <v>700</v>
@@ -5621,13 +5621,13 @@
         <v>726645</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5650,7 +5650,7 @@
         <v>481</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>424</v>
+        <v>332</v>
       </c>
       <c r="H34" s="7">
         <v>187</v>
@@ -5674,13 +5674,13 @@
         <v>403380</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>485</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>19</v>
+        <v>486</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5695,13 +5695,13 @@
         <v>182394</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H35" s="7">
         <v>142</v>
@@ -5710,13 +5710,13 @@
         <v>143422</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M35" s="7">
         <v>310</v>
@@ -5725,19 +5725,19 @@
         <v>325816</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>76</v>
+        <v>494</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C36" s="7">
         <v>306</v>
@@ -5746,13 +5746,13 @@
         <v>322826</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="H36" s="7">
         <v>234</v>
@@ -5761,13 +5761,13 @@
         <v>236464</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>395</v>
+        <v>13</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>266</v>
+        <v>467</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="M36" s="7">
         <v>540</v>
@@ -5776,19 +5776,19 @@
         <v>559290</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>217</v>
+        <v>93</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C37" s="7">
         <v>299</v>
@@ -5797,13 +5797,13 @@
         <v>320729</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="H37" s="7">
         <v>205</v>
@@ -5812,13 +5812,13 @@
         <v>207484</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M37" s="7">
         <v>504</v>
@@ -5827,10 +5827,10 @@
         <v>528213</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>507</v>
+        <v>461</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>508</v>
@@ -5839,7 +5839,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C38" s="7">
         <v>360</v>
@@ -5848,13 +5848,13 @@
         <v>387395</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>357</v>
+        <v>509</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H38" s="7">
         <v>245</v>
@@ -5863,13 +5863,13 @@
         <v>255401</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M38" s="7">
         <v>605</v>
@@ -5878,7 +5878,7 @@
         <v>642796</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>514</v>
+        <v>350</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>515</v>
@@ -5899,13 +5899,13 @@
         <v>1422322</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H39" s="7">
         <v>1013</v>
@@ -5914,13 +5914,13 @@
         <v>1037172</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M39" s="7">
         <v>2336</v>
@@ -5929,18 +5929,18 @@
         <v>2459494</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6711-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6711-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B30E562-7859-4F37-A4F5-F24E40FDD52D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32452559-84C9-4308-8FCF-23253F1CB24C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3E355D84-D6A7-4C75-B69C-03B2D1D602F8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{348219A5-331D-46C1-859B-6716D2AD3914}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="527">
   <si>
     <t>Población según si puede dejar su puesto de trabajo al menos una hora sin tener que pedir un permiso especial si le ha surgido algún asunto personal o familiar en 2012 (Tasa respuesta: 33,87%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -75,1519 +75,1549 @@
     <t>11,09%</t>
   </si>
   <si>
-    <t>3,91%</t>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si puede dejar su puesto de trabajo al menos una hora sin tener que pedir un permiso especial si le ha surgido algún asunto personal o familiar en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
   </si>
   <si>
     <t>22,8%</t>
   </si>
   <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si puede dejar su puesto de trabajo al menos una hora sin tener que pedir un permiso especial si le ha surgido algún asunto personal o familiar en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
   </si>
   <si>
     <t>26,14%</t>
   </si>
   <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
   </si>
 </sst>
 </file>
@@ -1999,7 +2029,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1430737-738C-49BE-AC6E-62445863D5BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC8A9F6D-841F-4B71-BE2F-B90D748AE46A}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2464,10 +2494,10 @@
         <v>65</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2482,13 +2512,13 @@
         <v>7990</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -2497,13 +2527,13 @@
         <v>6518</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M11" s="7">
         <v>12</v>
@@ -2512,13 +2542,13 @@
         <v>14508</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2533,13 +2563,13 @@
         <v>25912</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H12" s="7">
         <v>20</v>
@@ -2548,13 +2578,13 @@
         <v>21322</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>45</v>
@@ -2563,13 +2593,13 @@
         <v>47235</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2584,13 +2614,13 @@
         <v>35360</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -2599,13 +2629,13 @@
         <v>23767</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>56</v>
@@ -2614,13 +2644,13 @@
         <v>59127</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2635,13 +2665,13 @@
         <v>116680</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H14" s="7">
         <v>63</v>
@@ -2650,13 +2680,13 @@
         <v>63805</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M14" s="7">
         <v>174</v>
@@ -2665,13 +2695,13 @@
         <v>180485</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2727,7 +2757,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2739,13 +2769,13 @@
         <v>52494</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -2754,13 +2784,13 @@
         <v>34258</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>79</v>
@@ -2769,13 +2799,13 @@
         <v>86752</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2790,13 +2820,13 @@
         <v>20877</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -2805,13 +2835,13 @@
         <v>17471</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>35</v>
@@ -2820,13 +2850,13 @@
         <v>38348</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2841,13 +2871,13 @@
         <v>80436</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H18" s="7">
         <v>38</v>
@@ -2856,13 +2886,13 @@
         <v>40467</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M18" s="7">
         <v>111</v>
@@ -2871,13 +2901,13 @@
         <v>120903</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2892,13 +2922,13 @@
         <v>62918</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H19" s="7">
         <v>47</v>
@@ -2907,13 +2937,13 @@
         <v>50573</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M19" s="7">
         <v>107</v>
@@ -2922,13 +2952,13 @@
         <v>113491</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2943,13 +2973,13 @@
         <v>193966</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H20" s="7">
         <v>112</v>
@@ -2958,13 +2988,13 @@
         <v>126479</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M20" s="7">
         <v>290</v>
@@ -2973,13 +3003,13 @@
         <v>320445</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3035,7 +3065,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3047,13 +3077,13 @@
         <v>25876</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>45</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>21</v>
@@ -3062,13 +3092,13 @@
         <v>22761</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>45</v>
@@ -3077,13 +3107,13 @@
         <v>48637</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3098,13 +3128,13 @@
         <v>23584</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>15</v>
@@ -3113,13 +3143,13 @@
         <v>16930</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M23" s="7">
         <v>36</v>
@@ -3128,13 +3158,13 @@
         <v>40513</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3149,13 +3179,13 @@
         <v>70687</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H24" s="7">
         <v>22</v>
@@ -3164,13 +3194,13 @@
         <v>25399</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M24" s="7">
         <v>82</v>
@@ -3179,10 +3209,10 @@
         <v>96086</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>175</v>
@@ -3412,7 +3442,7 @@
         <v>205</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>206</v>
+        <v>84</v>
       </c>
       <c r="H29" s="7">
         <v>27</v>
@@ -3421,13 +3451,13 @@
         <v>29893</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M29" s="7">
         <v>59</v>
@@ -3436,13 +3466,13 @@
         <v>60959</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3457,13 +3487,13 @@
         <v>82723</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H30" s="7">
         <v>47</v>
@@ -3472,10 +3502,10 @@
         <v>49127</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>217</v>
@@ -3541,10 +3571,10 @@
         <v>227</v>
       </c>
       <c r="P31" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3559,13 +3589,13 @@
         <v>154273</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H32" s="7">
         <v>110</v>
@@ -3574,13 +3604,13 @@
         <v>112709</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M32" s="7">
         <v>252</v>
@@ -3589,13 +3619,13 @@
         <v>266981</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3663,13 +3693,13 @@
         <v>159106</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H34" s="7">
         <v>120</v>
@@ -3699,7 +3729,7 @@
         <v>245</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>197</v>
+        <v>246</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3714,13 +3744,13 @@
         <v>85180</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H35" s="7">
         <v>65</v>
@@ -3729,13 +3759,13 @@
         <v>72949</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M35" s="7">
         <v>146</v>
@@ -3744,13 +3774,13 @@
         <v>158129</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3765,13 +3795,13 @@
         <v>265481</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H36" s="7">
         <v>130</v>
@@ -3780,13 +3810,13 @@
         <v>139432</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>198</v>
+        <v>261</v>
       </c>
       <c r="M36" s="7">
         <v>377</v>
@@ -3795,13 +3825,13 @@
         <v>404913</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3816,13 +3846,13 @@
         <v>262402</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H37" s="7">
         <v>169</v>
@@ -3831,13 +3861,13 @@
         <v>179957</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M37" s="7">
         <v>424</v>
@@ -3846,13 +3876,13 @@
         <v>442358</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3867,13 +3897,13 @@
         <v>645791</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H38" s="7">
         <v>389</v>
@@ -3882,13 +3912,13 @@
         <v>421957</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M38" s="7">
         <v>989</v>
@@ -3897,13 +3927,13 @@
         <v>1067748</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3959,7 +3989,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -3980,7 +4010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29FEDD8-F0B1-4F85-82A9-F6492A444A62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064780E5-5DAC-42CA-BFF9-72E0D73CF66C}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3997,7 +4027,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4104,13 +4134,13 @@
         <v>4138</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -4119,13 +4149,13 @@
         <v>2662</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -4134,13 +4164,13 @@
         <v>6800</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4155,13 +4185,13 @@
         <v>7219</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -4170,13 +4200,13 @@
         <v>5432</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>34</v>
+        <v>297</v>
       </c>
       <c r="M5" s="7">
         <v>13</v>
@@ -4185,13 +4215,13 @@
         <v>12650</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4206,13 +4236,13 @@
         <v>9234</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -4221,13 +4251,13 @@
         <v>5384</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M6" s="7">
         <v>15</v>
@@ -4236,13 +4266,13 @@
         <v>14618</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4257,13 +4287,13 @@
         <v>12103</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -4272,13 +4302,13 @@
         <v>5193</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -4287,13 +4317,13 @@
         <v>17297</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>65</v>
+        <v>316</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>237</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4308,13 +4338,13 @@
         <v>11326</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="H8" s="7">
         <v>11</v>
@@ -4323,13 +4353,13 @@
         <v>11220</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="M8" s="7">
         <v>22</v>
@@ -4338,13 +4368,13 @@
         <v>22547</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>265</v>
+        <v>325</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4412,13 +4442,13 @@
         <v>27821</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="H10" s="7">
         <v>30</v>
@@ -4427,13 +4457,13 @@
         <v>30050</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>225</v>
+        <v>331</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="M10" s="7">
         <v>56</v>
@@ -4442,13 +4472,13 @@
         <v>57871</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4463,13 +4493,13 @@
         <v>24012</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="H11" s="7">
         <v>15</v>
@@ -4478,13 +4508,13 @@
         <v>14368</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>116</v>
+        <v>340</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="M11" s="7">
         <v>37</v>
@@ -4493,13 +4523,13 @@
         <v>38380</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>131</v>
+        <v>344</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4514,13 +4544,13 @@
         <v>47132</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="H12" s="7">
         <v>39</v>
@@ -4529,13 +4559,13 @@
         <v>37920</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>341</v>
+        <v>94</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="M12" s="7">
         <v>86</v>
@@ -4544,13 +4574,13 @@
         <v>85052</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4565,13 +4595,13 @@
         <v>53417</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="H13" s="7">
         <v>29</v>
@@ -4580,13 +4610,13 @@
         <v>27159</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>241</v>
+        <v>356</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="M13" s="7">
         <v>79</v>
@@ -4595,13 +4625,13 @@
         <v>80576</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4616,13 +4646,13 @@
         <v>46886</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="H14" s="7">
         <v>29</v>
@@ -4631,13 +4661,13 @@
         <v>27980</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="M14" s="7">
         <v>72</v>
@@ -4646,13 +4676,13 @@
         <v>74867</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4708,7 +4738,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4720,13 +4750,13 @@
         <v>54424</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="H16" s="7">
         <v>37</v>
@@ -4738,10 +4768,10 @@
         <v>65</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>212</v>
+        <v>372</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="M16" s="7">
         <v>83</v>
@@ -4750,13 +4780,13 @@
         <v>94655</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>138</v>
+        <v>374</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4771,13 +4801,13 @@
         <v>48828</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>370</v>
+        <v>331</v>
       </c>
       <c r="H17" s="7">
         <v>33</v>
@@ -4786,13 +4816,13 @@
         <v>31736</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="M17" s="7">
         <v>76</v>
@@ -4801,13 +4831,13 @@
         <v>80565</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>174</v>
+        <v>383</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4822,13 +4852,13 @@
         <v>103467</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="H18" s="7">
         <v>64</v>
@@ -4837,13 +4867,13 @@
         <v>62014</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="M18" s="7">
         <v>160</v>
@@ -4852,13 +4882,13 @@
         <v>165481</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4873,13 +4903,13 @@
         <v>94329</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="H19" s="7">
         <v>68</v>
@@ -4888,13 +4918,13 @@
         <v>70339</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="M19" s="7">
         <v>153</v>
@@ -4903,13 +4933,13 @@
         <v>164668</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>393</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4924,13 +4954,13 @@
         <v>112992</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="H20" s="7">
         <v>65</v>
@@ -4942,10 +4972,10 @@
         <v>221</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="M20" s="7">
         <v>167</v>
@@ -4954,13 +4984,13 @@
         <v>182443</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>313</v>
+        <v>406</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5016,7 +5046,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5031,10 +5061,10 @@
         <v>62</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="H22" s="7">
         <v>46</v>
@@ -5043,13 +5073,13 @@
         <v>47074</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="M22" s="7">
         <v>94</v>
@@ -5058,13 +5088,13 @@
         <v>102348</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5079,13 +5109,13 @@
         <v>63110</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="H23" s="7">
         <v>63</v>
@@ -5094,13 +5124,13 @@
         <v>64132</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="M23" s="7">
         <v>121</v>
@@ -5109,13 +5139,13 @@
         <v>127242</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5130,13 +5160,13 @@
         <v>86728</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="H24" s="7">
         <v>62</v>
@@ -5145,13 +5175,13 @@
         <v>62873</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="M24" s="7">
         <v>141</v>
@@ -5160,13 +5190,13 @@
         <v>149602</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5181,13 +5211,13 @@
         <v>75945</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>109</v>
+        <v>435</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="H25" s="7">
         <v>38</v>
@@ -5196,13 +5226,13 @@
         <v>38656</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="M25" s="7">
         <v>104</v>
@@ -5211,13 +5241,13 @@
         <v>114601</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>432</v>
+        <v>346</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>220</v>
+        <v>441</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5232,13 +5262,13 @@
         <v>82763</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="H26" s="7">
         <v>56</v>
@@ -5247,13 +5277,13 @@
         <v>57823</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>24</v>
+        <v>447</v>
       </c>
       <c r="M26" s="7">
         <v>132</v>
@@ -5262,13 +5292,13 @@
         <v>140586</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>439</v>
+        <v>88</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5336,13 +5366,13 @@
         <v>67321</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>407</v>
+        <v>451</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="H28" s="7">
         <v>71</v>
@@ -5351,13 +5381,13 @@
         <v>74384</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>413</v>
+        <v>454</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="M28" s="7">
         <v>137</v>
@@ -5366,13 +5396,13 @@
         <v>141705</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>446</v>
+        <v>140</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>447</v>
+        <v>257</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5387,13 +5417,13 @@
         <v>39225</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>364</v>
+        <v>457</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>450</v>
+        <v>201</v>
       </c>
       <c r="H29" s="7">
         <v>25</v>
@@ -5402,13 +5432,13 @@
         <v>27754</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="M29" s="7">
         <v>63</v>
@@ -5417,13 +5447,13 @@
         <v>66978</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5438,13 +5468,13 @@
         <v>76264</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="H30" s="7">
         <v>63</v>
@@ -5453,13 +5483,13 @@
         <v>68272</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>137</v>
+        <v>468</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="M30" s="7">
         <v>138</v>
@@ -5468,13 +5498,13 @@
         <v>144537</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>462</v>
+        <v>270</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5489,13 +5519,13 @@
         <v>84935</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="H31" s="7">
         <v>64</v>
@@ -5504,13 +5534,13 @@
         <v>66136</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>468</v>
+        <v>215</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="M31" s="7">
         <v>150</v>
@@ -5519,13 +5549,13 @@
         <v>151071</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5540,13 +5570,13 @@
         <v>133427</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="H32" s="7">
         <v>84</v>
@@ -5555,13 +5585,13 @@
         <v>88927</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="M32" s="7">
         <v>212</v>
@@ -5570,13 +5600,13 @@
         <v>222354</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>393</v>
+        <v>487</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>348</v>
+        <v>488</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5644,13 +5674,13 @@
         <v>208978</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>332</v>
+        <v>491</v>
       </c>
       <c r="H34" s="7">
         <v>187</v>
@@ -5659,13 +5689,13 @@
         <v>194402</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>483</v>
+        <v>446</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>484</v>
+        <v>222</v>
       </c>
       <c r="M34" s="7">
         <v>377</v>
@@ -5674,13 +5704,13 @@
         <v>403380</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5695,13 +5725,13 @@
         <v>182394</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>488</v>
+        <v>238</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="H35" s="7">
         <v>142</v>
@@ -5710,13 +5740,13 @@
         <v>143422</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>490</v>
+        <v>417</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>492</v>
+        <v>213</v>
       </c>
       <c r="M35" s="7">
         <v>310</v>
@@ -5725,13 +5755,13 @@
         <v>325816</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5746,13 +5776,13 @@
         <v>322826</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="H36" s="7">
         <v>234</v>
@@ -5761,13 +5791,13 @@
         <v>236464</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>13</v>
+        <v>504</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>467</v>
+        <v>505</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="M36" s="7">
         <v>540</v>
@@ -5776,13 +5806,13 @@
         <v>559290</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>93</v>
+        <v>508</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5797,13 +5827,13 @@
         <v>320729</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>498</v>
+        <v>384</v>
       </c>
       <c r="H37" s="7">
         <v>205</v>
@@ -5812,13 +5842,13 @@
         <v>207484</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="M37" s="7">
         <v>504</v>
@@ -5827,13 +5857,13 @@
         <v>528213</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>461</v>
+        <v>516</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5848,13 +5878,13 @@
         <v>387395</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="H38" s="7">
         <v>245</v>
@@ -5863,13 +5893,13 @@
         <v>255401</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="M38" s="7">
         <v>605</v>
@@ -5878,13 +5908,13 @@
         <v>642796</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>350</v>
+        <v>524</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5940,7 +5970,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6711-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6711-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32452559-84C9-4308-8FCF-23253F1CB24C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77396A76-01B2-4063-AC22-1C7475D506A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{348219A5-331D-46C1-859B-6716D2AD3914}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B34FC9AE-9A9B-48DC-8C32-5AFAE599F118}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="517">
   <si>
     <t>Población según si puede dejar su puesto de trabajo al menos una hora sin tener que pedir un permiso especial si le ha surgido algún asunto personal o familiar en 2012 (Tasa respuesta: 33,87%)</t>
   </si>
@@ -75,10 +75,10 @@
     <t>11,09%</t>
   </si>
   <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
   </si>
   <si>
     <t>4,81%</t>
@@ -87,16 +87,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>24,87%</t>
+    <t>24,3%</t>
   </si>
   <si>
     <t>9,04%</t>
   </si>
   <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
   </si>
   <si>
     <t>Solo alguna vez</t>
@@ -105,151 +105,148 @@
     <t>3,22%</t>
   </si>
   <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
     <t>9,76%</t>
   </si>
   <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
+    <t>22,68%</t>
   </si>
   <si>
     <t>14,7%</t>
   </si>
   <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
   </si>
   <si>
     <t>3,68%</t>
   </si>
   <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
   </si>
   <si>
     <t>4,79%</t>
@@ -258,1366 +255,1339 @@
     <t>1,48%</t>
   </si>
   <si>
-    <t>10,38%</t>
+    <t>11,12%</t>
   </si>
   <si>
     <t>4,11%</t>
   </si>
   <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
   </si>
   <si>
     <t>11,93%</t>
   </si>
   <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
   </si>
   <si>
     <t>15,67%</t>
   </si>
   <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
   </si>
   <si>
     <t>13,37%</t>
   </si>
   <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
   </si>
   <si>
     <t>16,28%</t>
   </si>
   <si>
-    <t>11,92%</t>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si puede dejar su puesto de trabajo al menos una hora sin tener que pedir un permiso especial si le ha surgido algún asunto personal o familiar en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
   </si>
   <si>
     <t>22,16%</t>
   </si>
   <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
   </si>
   <si>
     <t>19,5%</t>
   </si>
   <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
     <t>16,49%</t>
   </si>
   <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si puede dejar su puesto de trabajo al menos una hora sin tener que pedir un permiso especial si le ha surgido algún asunto personal o familiar en 2016 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
   </si>
   <si>
     <t>13,83%</t>
   </si>
   <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
   </si>
   <si>
     <t>13,25%</t>
   </si>
   <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
+    <t>14,66%</t>
   </si>
   <si>
     <t>22,7%</t>
   </si>
   <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
   </si>
   <si>
     <t>22,74%</t>
   </si>
   <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
+    <t>24,46%</t>
   </si>
   <si>
     <t>22,55%</t>
   </si>
   <si>
-    <t>20,34%</t>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
   </si>
   <si>
     <t>20,0%</t>
   </si>
   <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
   </si>
   <si>
     <t>21,48%</t>
   </si>
   <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
   </si>
   <si>
     <t>24,62%</t>
   </si>
   <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
   </si>
   <si>
     <t>26,14%</t>
   </si>
   <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
   </si>
 </sst>
 </file>
@@ -2029,7 +1999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC8A9F6D-841F-4B71-BE2F-B90D748AE46A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0389E4EC-9B15-4FC0-95A3-420892A84DC5}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2240,13 +2210,13 @@
         <v>26</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="7">
         <v>7</v>
@@ -2255,13 +2225,13 @@
         <v>5722</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -2270,13 +2240,13 @@
         <v>3117</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="M6" s="7">
         <v>10</v>
@@ -2285,19 +2255,19 @@
         <v>8839</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="7">
         <v>7</v>
@@ -2306,13 +2276,13 @@
         <v>7235</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -2321,13 +2291,13 @@
         <v>1063</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -2336,19 +2306,19 @@
         <v>8298</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="7">
         <v>33</v>
@@ -2357,13 +2327,13 @@
         <v>31372</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>15</v>
@@ -2372,13 +2342,13 @@
         <v>17656</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="M8" s="7">
         <v>48</v>
@@ -2387,13 +2357,13 @@
         <v>49029</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2408,13 +2378,13 @@
         <v>51733</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H9" s="7">
         <v>22</v>
@@ -2423,13 +2393,13 @@
         <v>25186</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>76</v>
@@ -2438,18 +2408,18 @@
         <v>76919</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2461,13 +2431,13 @@
         <v>31262</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H10" s="7">
         <v>18</v>
@@ -2476,13 +2446,13 @@
         <v>20677</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M10" s="7">
         <v>47</v>
@@ -2491,13 +2461,13 @@
         <v>51939</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2512,13 +2482,13 @@
         <v>7990</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -2527,13 +2497,13 @@
         <v>6518</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M11" s="7">
         <v>12</v>
@@ -2542,19 +2512,19 @@
         <v>14508</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="7">
         <v>25</v>
@@ -2563,13 +2533,13 @@
         <v>25912</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H12" s="7">
         <v>20</v>
@@ -2578,13 +2548,13 @@
         <v>21322</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>45</v>
@@ -2593,19 +2563,19 @@
         <v>47235</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="7">
         <v>34</v>
@@ -2614,13 +2584,13 @@
         <v>35360</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -2629,13 +2599,13 @@
         <v>23767</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>56</v>
@@ -2644,19 +2614,19 @@
         <v>59127</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="7">
         <v>111</v>
@@ -2665,13 +2635,13 @@
         <v>116680</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H14" s="7">
         <v>63</v>
@@ -2680,13 +2650,13 @@
         <v>63805</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M14" s="7">
         <v>174</v>
@@ -2695,13 +2665,13 @@
         <v>180485</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2716,13 +2686,13 @@
         <v>217204</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H15" s="7">
         <v>128</v>
@@ -2731,13 +2701,13 @@
         <v>136089</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M15" s="7">
         <v>334</v>
@@ -2746,18 +2716,18 @@
         <v>353293</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2769,13 +2739,13 @@
         <v>52494</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -2784,13 +2754,13 @@
         <v>34258</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>109</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="M16" s="7">
         <v>79</v>
@@ -2799,13 +2769,13 @@
         <v>86752</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2820,13 +2790,13 @@
         <v>20877</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -2835,13 +2805,13 @@
         <v>17471</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>35</v>
@@ -2850,19 +2820,19 @@
         <v>38348</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="7">
         <v>73</v>
@@ -2871,13 +2841,13 @@
         <v>80436</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H18" s="7">
         <v>38</v>
@@ -2886,13 +2856,13 @@
         <v>40467</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M18" s="7">
         <v>111</v>
@@ -2901,19 +2871,19 @@
         <v>120903</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="7">
         <v>60</v>
@@ -2922,13 +2892,13 @@
         <v>62918</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H19" s="7">
         <v>47</v>
@@ -2937,13 +2907,13 @@
         <v>50573</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M19" s="7">
         <v>107</v>
@@ -2952,19 +2922,19 @@
         <v>113491</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" s="7">
         <v>178</v>
@@ -2973,13 +2943,13 @@
         <v>193966</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H20" s="7">
         <v>112</v>
@@ -2988,13 +2958,13 @@
         <v>126479</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M20" s="7">
         <v>290</v>
@@ -3003,13 +2973,13 @@
         <v>320445</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3024,13 +2994,13 @@
         <v>410691</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H21" s="7">
         <v>244</v>
@@ -3039,13 +3009,13 @@
         <v>269248</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M21" s="7">
         <v>622</v>
@@ -3054,18 +3024,18 @@
         <v>679939</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3077,13 +3047,13 @@
         <v>25876</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="H22" s="7">
         <v>21</v>
@@ -3092,13 +3062,13 @@
         <v>22761</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="M22" s="7">
         <v>45</v>
@@ -3107,13 +3077,13 @@
         <v>48637</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3128,13 +3098,13 @@
         <v>23584</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>162</v>
+        <v>72</v>
       </c>
       <c r="H23" s="7">
         <v>15</v>
@@ -3143,13 +3113,13 @@
         <v>16930</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="M23" s="7">
         <v>36</v>
@@ -3158,19 +3128,19 @@
         <v>40513</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="7">
         <v>60</v>
@@ -3179,13 +3149,13 @@
         <v>70687</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H24" s="7">
         <v>22</v>
@@ -3194,13 +3164,13 @@
         <v>25399</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="M24" s="7">
         <v>82</v>
@@ -3209,19 +3179,19 @@
         <v>96086</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="7">
         <v>49</v>
@@ -3230,13 +3200,13 @@
         <v>50894</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H25" s="7">
         <v>44</v>
@@ -3245,13 +3215,13 @@
         <v>46866</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M25" s="7">
         <v>93</v>
@@ -3260,19 +3230,19 @@
         <v>97761</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C26" s="7">
         <v>136</v>
@@ -3281,13 +3251,13 @@
         <v>149501</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H26" s="7">
         <v>89</v>
@@ -3296,13 +3266,13 @@
         <v>101308</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="M26" s="7">
         <v>225</v>
@@ -3311,13 +3281,13 @@
         <v>250809</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3332,13 +3302,13 @@
         <v>320542</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H27" s="7">
         <v>191</v>
@@ -3347,13 +3317,13 @@
         <v>213264</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M27" s="7">
         <v>481</v>
@@ -3362,18 +3332,18 @@
         <v>533805</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3385,13 +3355,13 @@
         <v>43735</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H28" s="7">
         <v>49</v>
@@ -3400,13 +3370,13 @@
         <v>52087</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="M28" s="7">
         <v>91</v>
@@ -3415,13 +3385,13 @@
         <v>95822</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>202</v>
+        <v>125</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3436,13 +3406,13 @@
         <v>31066</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>84</v>
+        <v>201</v>
       </c>
       <c r="H29" s="7">
         <v>27</v>
@@ -3451,13 +3421,13 @@
         <v>29893</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M29" s="7">
         <v>59</v>
@@ -3466,19 +3436,19 @@
         <v>60959</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="7">
         <v>82</v>
@@ -3487,13 +3457,13 @@
         <v>82723</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="H30" s="7">
         <v>47</v>
@@ -3502,13 +3472,13 @@
         <v>49127</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="M30" s="7">
         <v>129</v>
@@ -3517,19 +3487,19 @@
         <v>131850</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" s="7">
         <v>105</v>
@@ -3538,13 +3508,13 @@
         <v>105994</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H31" s="7">
         <v>55</v>
@@ -3553,13 +3523,13 @@
         <v>57687</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="M31" s="7">
         <v>160</v>
@@ -3568,19 +3538,19 @@
         <v>163681</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>128</v>
+        <v>223</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C32" s="7">
         <v>142</v>
@@ -3589,13 +3559,13 @@
         <v>154273</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H32" s="7">
         <v>110</v>
@@ -3604,13 +3574,13 @@
         <v>112709</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="M32" s="7">
         <v>252</v>
@@ -3619,13 +3589,13 @@
         <v>266981</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3640,13 +3610,13 @@
         <v>417791</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H33" s="7">
         <v>288</v>
@@ -3655,13 +3625,13 @@
         <v>301503</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M33" s="7">
         <v>691</v>
@@ -3670,13 +3640,13 @@
         <v>719294</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3693,13 +3663,13 @@
         <v>159106</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H34" s="7">
         <v>120</v>
@@ -3708,13 +3678,13 @@
         <v>130995</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="M34" s="7">
         <v>268</v>
@@ -3723,13 +3693,13 @@
         <v>290101</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3744,13 +3714,13 @@
         <v>85180</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>248</v>
+        <v>14</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="H35" s="7">
         <v>65</v>
@@ -3759,13 +3729,13 @@
         <v>72949</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="M35" s="7">
         <v>146</v>
@@ -3774,19 +3744,19 @@
         <v>158129</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C36" s="7">
         <v>247</v>
@@ -3795,13 +3765,13 @@
         <v>265481</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H36" s="7">
         <v>130</v>
@@ -3810,13 +3780,13 @@
         <v>139432</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="M36" s="7">
         <v>377</v>
@@ -3825,19 +3795,19 @@
         <v>404913</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>263</v>
+        <v>79</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37" s="7">
         <v>255</v>
@@ -3846,13 +3816,13 @@
         <v>262402</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="H37" s="7">
         <v>169</v>
@@ -3861,13 +3831,13 @@
         <v>179957</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="M37" s="7">
         <v>424</v>
@@ -3876,19 +3846,19 @@
         <v>442358</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C38" s="7">
         <v>600</v>
@@ -3897,13 +3867,13 @@
         <v>645791</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="H38" s="7">
         <v>389</v>
@@ -3912,13 +3882,13 @@
         <v>421957</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="M38" s="7">
         <v>989</v>
@@ -3927,13 +3897,13 @@
         <v>1067748</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,13 +3918,13 @@
         <v>1417960</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H39" s="7">
         <v>873</v>
@@ -3963,13 +3933,13 @@
         <v>945290</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M39" s="7">
         <v>2204</v>
@@ -3978,18 +3948,18 @@
         <v>2363250</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -4010,7 +3980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064780E5-5DAC-42CA-BFF9-72E0D73CF66C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59ACBA91-126E-4292-ACFE-F33A60C80305}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4027,7 +3997,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4134,13 +4104,13 @@
         <v>4138</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -4149,13 +4119,13 @@
         <v>2662</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -4164,13 +4134,13 @@
         <v>6800</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4185,13 +4155,13 @@
         <v>7219</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -4200,13 +4170,13 @@
         <v>5432</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>296</v>
+        <v>77</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="M5" s="7">
         <v>13</v>
@@ -4215,19 +4185,19 @@
         <v>12650</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>106</v>
+        <v>293</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="7">
         <v>9</v>
@@ -4236,13 +4206,13 @@
         <v>9234</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -4251,13 +4221,13 @@
         <v>5384</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="M6" s="7">
         <v>15</v>
@@ -4266,19 +4236,19 @@
         <v>14618</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="7">
         <v>12</v>
@@ -4287,13 +4257,13 @@
         <v>12103</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -4302,13 +4272,13 @@
         <v>5193</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -4317,19 +4287,19 @@
         <v>17297</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="7">
         <v>11</v>
@@ -4338,13 +4308,13 @@
         <v>11326</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>318</v>
+        <v>24</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="H8" s="7">
         <v>11</v>
@@ -4353,13 +4323,13 @@
         <v>11220</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="M8" s="7">
         <v>22</v>
@@ -4368,13 +4338,13 @@
         <v>22547</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4389,13 +4359,13 @@
         <v>44021</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H9" s="7">
         <v>32</v>
@@ -4404,13 +4374,13 @@
         <v>29891</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>75</v>
@@ -4419,18 +4389,18 @@
         <v>73912</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4442,13 +4412,13 @@
         <v>27821</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="H10" s="7">
         <v>30</v>
@@ -4457,13 +4427,13 @@
         <v>30050</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="M10" s="7">
         <v>56</v>
@@ -4472,13 +4442,13 @@
         <v>57871</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4493,13 +4463,13 @@
         <v>24012</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="H11" s="7">
         <v>15</v>
@@ -4508,13 +4478,13 @@
         <v>14368</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="M11" s="7">
         <v>37</v>
@@ -4523,19 +4493,19 @@
         <v>38380</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="7">
         <v>47</v>
@@ -4544,13 +4514,13 @@
         <v>47132</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="H12" s="7">
         <v>39</v>
@@ -4559,13 +4529,13 @@
         <v>37920</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>94</v>
+        <v>342</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="M12" s="7">
         <v>86</v>
@@ -4574,19 +4544,19 @@
         <v>85052</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="7">
         <v>50</v>
@@ -4595,13 +4565,13 @@
         <v>53417</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="H13" s="7">
         <v>29</v>
@@ -4610,13 +4580,13 @@
         <v>27159</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>355</v>
+        <v>138</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="M13" s="7">
         <v>79</v>
@@ -4625,19 +4595,19 @@
         <v>80576</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>359</v>
+        <v>121</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="7">
         <v>43</v>
@@ -4646,13 +4616,13 @@
         <v>46886</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>362</v>
+        <v>307</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="H14" s="7">
         <v>29</v>
@@ -4661,13 +4631,13 @@
         <v>27980</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="M14" s="7">
         <v>72</v>
@@ -4676,13 +4646,13 @@
         <v>74867</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4697,13 +4667,13 @@
         <v>199269</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H15" s="7">
         <v>142</v>
@@ -4712,13 +4682,13 @@
         <v>137478</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M15" s="7">
         <v>330</v>
@@ -4727,18 +4697,18 @@
         <v>336747</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4750,13 +4720,13 @@
         <v>54424</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="H16" s="7">
         <v>37</v>
@@ -4765,13 +4735,13 @@
         <v>40231</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="M16" s="7">
         <v>83</v>
@@ -4780,13 +4750,13 @@
         <v>94655</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>79</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4801,13 +4771,13 @@
         <v>48828</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="H17" s="7">
         <v>33</v>
@@ -4816,13 +4786,13 @@
         <v>31736</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="M17" s="7">
         <v>76</v>
@@ -4831,19 +4801,19 @@
         <v>80565</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="7">
         <v>96</v>
@@ -4852,13 +4822,13 @@
         <v>103467</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>384</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="H18" s="7">
         <v>64</v>
@@ -4867,13 +4837,13 @@
         <v>62014</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>362</v>
+        <v>178</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M18" s="7">
         <v>160</v>
@@ -4882,19 +4852,19 @@
         <v>165481</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="7">
         <v>85</v>
@@ -4903,13 +4873,13 @@
         <v>94329</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="H19" s="7">
         <v>68</v>
@@ -4918,13 +4888,13 @@
         <v>70339</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="M19" s="7">
         <v>153</v>
@@ -4933,19 +4903,19 @@
         <v>164668</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>299</v>
+        <v>393</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" s="7">
         <v>102</v>
@@ -4954,13 +4924,13 @@
         <v>112992</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="H20" s="7">
         <v>65</v>
@@ -4969,13 +4939,13 @@
         <v>69451</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="M20" s="7">
         <v>167</v>
@@ -4984,13 +4954,13 @@
         <v>182443</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5005,13 +4975,13 @@
         <v>414041</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H21" s="7">
         <v>267</v>
@@ -5020,13 +4990,13 @@
         <v>273771</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M21" s="7">
         <v>639</v>
@@ -5035,18 +5005,18 @@
         <v>687812</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5058,13 +5028,13 @@
         <v>55274</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="H22" s="7">
         <v>46</v>
@@ -5073,13 +5043,13 @@
         <v>47074</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="M22" s="7">
         <v>94</v>
@@ -5088,13 +5058,13 @@
         <v>102348</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>413</v>
+        <v>335</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>414</v>
+        <v>328</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5109,13 +5079,13 @@
         <v>63110</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="H23" s="7">
         <v>63</v>
@@ -5124,13 +5094,13 @@
         <v>64132</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>420</v>
+        <v>66</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="M23" s="7">
         <v>121</v>
@@ -5139,19 +5109,19 @@
         <v>127242</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="7">
         <v>79</v>
@@ -5160,13 +5130,13 @@
         <v>86728</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="H24" s="7">
         <v>62</v>
@@ -5175,13 +5145,13 @@
         <v>62873</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="M24" s="7">
         <v>141</v>
@@ -5190,19 +5160,19 @@
         <v>149602</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>431</v>
+        <v>81</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="7">
         <v>66</v>
@@ -5211,13 +5181,13 @@
         <v>75945</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>434</v>
+        <v>378</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="H25" s="7">
         <v>38</v>
@@ -5226,13 +5196,13 @@
         <v>38656</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>437</v>
+        <v>193</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="M25" s="7">
         <v>104</v>
@@ -5241,19 +5211,19 @@
         <v>114601</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>346</v>
+        <v>428</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C26" s="7">
         <v>76</v>
@@ -5262,13 +5232,13 @@
         <v>82763</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="H26" s="7">
         <v>56</v>
@@ -5277,13 +5247,13 @@
         <v>57823</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>445</v>
+        <v>319</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="M26" s="7">
         <v>132</v>
@@ -5292,13 +5262,13 @@
         <v>140586</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>88</v>
+        <v>436</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5313,13 +5283,13 @@
         <v>363820</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H27" s="7">
         <v>265</v>
@@ -5328,13 +5298,13 @@
         <v>270558</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M27" s="7">
         <v>592</v>
@@ -5343,18 +5313,18 @@
         <v>634378</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5366,13 +5336,13 @@
         <v>67321</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>452</v>
+        <v>30</v>
       </c>
       <c r="H28" s="7">
         <v>71</v>
@@ -5381,13 +5351,13 @@
         <v>74384</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="M28" s="7">
         <v>137</v>
@@ -5396,13 +5366,13 @@
         <v>141705</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>140</v>
+        <v>444</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>257</v>
+        <v>445</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5417,13 +5387,13 @@
         <v>39225</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>201</v>
+        <v>449</v>
       </c>
       <c r="H29" s="7">
         <v>25</v>
@@ -5432,13 +5402,13 @@
         <v>27754</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="M29" s="7">
         <v>63</v>
@@ -5447,19 +5417,19 @@
         <v>66978</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>464</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="7">
         <v>75</v>
@@ -5468,13 +5438,13 @@
         <v>76264</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="H30" s="7">
         <v>63</v>
@@ -5483,13 +5453,13 @@
         <v>68272</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="M30" s="7">
         <v>138</v>
@@ -5498,19 +5468,19 @@
         <v>144537</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>470</v>
+        <v>45</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>270</v>
+        <v>460</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" s="7">
         <v>86</v>
@@ -5519,13 +5489,13 @@
         <v>84935</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="H31" s="7">
         <v>64</v>
@@ -5534,13 +5504,13 @@
         <v>66136</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>215</v>
+        <v>466</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="M31" s="7">
         <v>150</v>
@@ -5549,19 +5519,19 @@
         <v>151071</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C32" s="7">
         <v>128</v>
@@ -5570,13 +5540,13 @@
         <v>133427</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="H32" s="7">
         <v>84</v>
@@ -5585,13 +5555,13 @@
         <v>88927</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="M32" s="7">
         <v>212</v>
@@ -5600,13 +5570,13 @@
         <v>222354</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5621,13 +5591,13 @@
         <v>401171</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H33" s="7">
         <v>307</v>
@@ -5636,13 +5606,13 @@
         <v>325474</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M33" s="7">
         <v>700</v>
@@ -5651,13 +5621,13 @@
         <v>726645</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5674,13 +5644,13 @@
         <v>208978</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>491</v>
+        <v>424</v>
       </c>
       <c r="H34" s="7">
         <v>187</v>
@@ -5689,13 +5659,13 @@
         <v>194402</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>446</v>
+        <v>483</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>222</v>
+        <v>484</v>
       </c>
       <c r="M34" s="7">
         <v>377</v>
@@ -5704,13 +5674,13 @@
         <v>403380</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>494</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5725,13 +5695,13 @@
         <v>182394</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>238</v>
+        <v>487</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="H35" s="7">
         <v>142</v>
@@ -5740,13 +5710,13 @@
         <v>143422</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>417</v>
+        <v>489</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>213</v>
+        <v>491</v>
       </c>
       <c r="M35" s="7">
         <v>310</v>
@@ -5755,19 +5725,19 @@
         <v>325816</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>499</v>
+        <v>76</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C36" s="7">
         <v>306</v>
@@ -5776,13 +5746,13 @@
         <v>322826</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="H36" s="7">
         <v>234</v>
@@ -5791,13 +5761,13 @@
         <v>236464</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>504</v>
+        <v>395</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>505</v>
+        <v>266</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="M36" s="7">
         <v>540</v>
@@ -5806,19 +5776,19 @@
         <v>559290</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>508</v>
+        <v>217</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37" s="7">
         <v>299</v>
@@ -5827,13 +5797,13 @@
         <v>320729</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>384</v>
+        <v>502</v>
       </c>
       <c r="H37" s="7">
         <v>205</v>
@@ -5842,13 +5812,13 @@
         <v>207484</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="M37" s="7">
         <v>504</v>
@@ -5857,19 +5827,19 @@
         <v>528213</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C38" s="7">
         <v>360</v>
@@ -5878,13 +5848,13 @@
         <v>387395</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>518</v>
+        <v>357</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H38" s="7">
         <v>245</v>
@@ -5893,13 +5863,13 @@
         <v>255401</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="M38" s="7">
         <v>605</v>
@@ -5908,13 +5878,13 @@
         <v>642796</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5929,13 +5899,13 @@
         <v>1422322</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H39" s="7">
         <v>1013</v>
@@ -5944,13 +5914,13 @@
         <v>1037172</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M39" s="7">
         <v>2336</v>
@@ -5959,18 +5929,18 @@
         <v>2459494</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
